--- a/scripts/all_column_names.xlsx
+++ b/scripts/all_column_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F539F981-AF10-450A-BF00-D3BFF52332AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE2E707-3136-44FF-825F-6765E0BE5D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11197" yWindow="8" windowWidth="11288" windowHeight="14880" xr2:uid="{818C18F1-F3DF-419E-96E8-1EC3BB6576C8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{818C18F1-F3DF-419E-96E8-1EC3BB6576C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>genus_species</t>
   </si>
@@ -101,6 +101,48 @@
   </si>
   <si>
     <t>notes.y</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>vegetation</t>
+  </si>
+  <si>
+    <t>dist_shore</t>
+  </si>
+  <si>
+    <t>bottom_type</t>
+  </si>
+  <si>
+    <t>depth_m</t>
+  </si>
+  <si>
+    <t>depth_capture</t>
+  </si>
+  <si>
+    <t>ecol_habitat</t>
+  </si>
+  <si>
+    <t>habitat_type</t>
+  </si>
+  <si>
+    <t>distance_from_shore</t>
+  </si>
+  <si>
+    <t>depth_water</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>precise_locality</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>island_name</t>
   </si>
 </sst>
 </file>
@@ -461,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89270912-4039-4EF2-8FD2-EE320CFCF5C7}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -477,9 +519,15 @@
     <col min="6" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.53125" customWidth="1"/>
     <col min="9" max="9" width="16.796875" customWidth="1"/>
+    <col min="11" max="11" width="11.53125" customWidth="1"/>
+    <col min="12" max="12" width="14.46484375" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" customWidth="1"/>
+    <col min="15" max="15" width="12.06640625" customWidth="1"/>
+    <col min="16" max="16" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -510,8 +558,29 @@
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -533,8 +602,26 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -547,8 +634,11 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>16</v>
       </c>
